--- a/Table/client/lua/exe/temp/M 迷境探索单元格表.xlsx
+++ b/Table/client/lua/exe/temp/M 迷境探索单元格表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ol_and_v13\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24653910-884B-4D82-95CF-EBEF9D6D630B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0B5D6E00-1F56-46B9-9803-58A9297CE5EE}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2E8B5186-833D-4977-AE57-6E7C16438166}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FC105506-F685-42F2-ABD8-14F19C1895F7}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{879EF15A-5060-4865-B861-BB09AAB9D994}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D04BE824-F092-4196-93A0-2DF1D93BA48E}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{46B887F2-AE00-4874-93A6-8F5232E2D315}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{5718C2D0-1947-420A-B8F9-1788B0D00811}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{4E3E213E-A690-4EAB-AB67-16F6978AFA0D}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,12 +170,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{EC0155DD-2C3F-49E0-87D5-6CDA603BADAA}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{ECC533ED-BA91-44F3-BADF-6EFBB187392E}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{C8515549-E15E-44B5-BC46-EECB451EF842}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{C010E13D-07FC-4BDE-BD9D-BECB0340C795}">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{6B6DCB76-8189-44FF-831E-ACCF092C445B}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{4F6A5735-7AA5-44E9-9C24-803E9CB6AAA1}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{0F04CE2E-342E-4D0F-BE14-ACE2D2BED7C3}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{E3F01CCD-2864-4963-9B77-93BFBD22F1A7}">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="106">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -522,84 +522,158 @@
     <t>35108,1</t>
   </si>
   <si>
-    <t>零散的元宝</t>
+    <t>重置概率</t>
+  </si>
+  <si>
+    <t>1,5000</t>
+  </si>
+  <si>
+    <t>1,7500</t>
+  </si>
+  <si>
+    <t>1,12500</t>
+  </si>
+  <si>
+    <t>1,13500</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>3,15</t>
+  </si>
+  <si>
+    <t>3,25</t>
+  </si>
+  <si>
+    <t>地皮资源</t>
+  </si>
+  <si>
+    <t>mijing_cao_01.png</t>
+  </si>
+  <si>
+    <t>mijing_cao_02.png</t>
+  </si>
+  <si>
+    <t>mijing_cao_03.png</t>
+  </si>
+  <si>
+    <t>mijing_cao_04.png</t>
+  </si>
+  <si>
+    <t>mijing_cao_05.png</t>
+  </si>
+  <si>
+    <t>mijing_cao_06.png</t>
+  </si>
+  <si>
+    <t>mijing_cao_07.png</t>
+  </si>
+  <si>
+    <t>mijing_cao_08.png</t>
+  </si>
+  <si>
+    <t>mijing_cao_09.png</t>
+  </si>
+  <si>
+    <t>小金礦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>零散的元宝</t>
+    <t>中型金礦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>稀薄的灵气</t>
+    <t>大型金礦</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>充裕的灵气</t>
+    <t>零散的元寶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>聚集的灵气</t>
+    <t>一大袋元寶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>重置概率</t>
-  </si>
-  <si>
-    <t>1,5000</t>
-  </si>
-  <si>
-    <t>1,7500</t>
-  </si>
-  <si>
-    <t>1,12500</t>
-  </si>
-  <si>
-    <t>1,13500</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>3,15</t>
-  </si>
-  <si>
-    <t>3,25</t>
-  </si>
-  <si>
-    <t>地皮资源</t>
-  </si>
-  <si>
-    <t>mijing_cao_01.png</t>
-  </si>
-  <si>
-    <t>mijing_cao_02.png</t>
-  </si>
-  <si>
-    <t>mijing_cao_03.png</t>
-  </si>
-  <si>
-    <t>mijing_cao_04.png</t>
-  </si>
-  <si>
-    <t>mijing_cao_05.png</t>
-  </si>
-  <si>
-    <t>mijing_cao_06.png</t>
-  </si>
-  <si>
-    <t>mijing_cao_07.png</t>
-  </si>
-  <si>
-    <t>mijing_cao_08.png</t>
-  </si>
-  <si>
-    <t>mijing_cao_09.png</t>
+    <t>大型寶藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀薄的靈氣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集的靈氣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充裕的靈氣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘寶藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小頭領</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兇惡怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殘暴魔物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元格名称</t>
+  </si>
+  <si>
+    <t>소형 금광</t>
+  </si>
+  <si>
+    <t>중형 금광</t>
+  </si>
+  <si>
+    <t>대형 금광</t>
+  </si>
+  <si>
+    <t>흩어진 원보</t>
+  </si>
+  <si>
+    <t>원보주머니(대)</t>
+  </si>
+  <si>
+    <t>대형 보물</t>
+  </si>
+  <si>
+    <t>희박한 영기</t>
+  </si>
+  <si>
+    <t>밀집된 영기</t>
+  </si>
+  <si>
+    <t>풍부한 영기</t>
+  </si>
+  <si>
+    <t>신비 보물</t>
+  </si>
+  <si>
+    <t>작은 두목</t>
+  </si>
+  <si>
+    <t>흉악한 몬스터</t>
+  </si>
+  <si>
+    <t>포악한 마물</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1052,28 +1126,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.375" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.375" customWidth="1"/>
+    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,37 +1156,38 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>110101</v>
       </c>
@@ -1119,35 +1195,38 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2">
         <v>5000</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>110102</v>
       </c>
@@ -1155,35 +1234,38 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
         <v>15</v>
       </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2">
         <v>5000</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>110103</v>
       </c>
@@ -1191,35 +1273,38 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>24</v>
       </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2">
         <v>5000</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>110104</v>
       </c>
@@ -1227,35 +1312,38 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>36</v>
       </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="2">
         <v>5000</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>110105</v>
       </c>
@@ -1263,35 +1351,38 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
         <v>48</v>
       </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2">
         <v>5000</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>110201</v>
       </c>
@@ -1299,35 +1390,38 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
+        <v>93</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2">
         <v>4000</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>110202</v>
       </c>
@@ -1335,35 +1429,38 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2">
+        <v>93</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>24</v>
       </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="2">
         <v>4000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>110203</v>
       </c>
@@ -1371,35 +1468,38 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
+        <v>93</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>36</v>
       </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2">
         <v>4000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>110204</v>
       </c>
@@ -1407,35 +1507,38 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2">
+        <v>93</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>48</v>
       </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2">
         <v>4000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>110301</v>
       </c>
@@ -1443,35 +1546,38 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2">
+        <v>94</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>36</v>
       </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>3000</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>110302</v>
       </c>
@@ -1479,35 +1585,38 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2">
+        <v>94</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>48</v>
       </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>3000</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>110401</v>
       </c>
@@ -1515,35 +1624,38 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2">
         <v>4</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>24</v>
       </c>
-      <c r="F13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>3000</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>110402</v>
       </c>
@@ -1551,35 +1663,38 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2">
+        <v>94</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>36</v>
       </c>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>2500</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>110501</v>
       </c>
@@ -1587,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
@@ -1598,24 +1713,27 @@
       <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="2">
         <v>2000</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>110502</v>
       </c>
@@ -1623,35 +1741,38 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
         <v>24</v>
       </c>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="2">
         <v>2000</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>110503</v>
       </c>
@@ -1659,35 +1780,38 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
         <v>36</v>
       </c>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="2">
         <v>2000</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>110504</v>
       </c>
@@ -1695,35 +1819,38 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
         <v>60</v>
       </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="2">
         <v>1000</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>110505</v>
       </c>
@@ -1731,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
@@ -1742,24 +1869,27 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="2">
         <v>1000</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>120101</v>
       </c>
@@ -1767,35 +1897,38 @@
         <v>1</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="9">
+        <v>96</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="9">
         <v>2</v>
       </c>
-      <c r="E20" s="9">
-        <v>5</v>
-      </c>
       <c r="F20" s="9">
+        <v>5</v>
+      </c>
+      <c r="G20" s="9">
         <v>30</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="9">
+      <c r="H20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="9">
         <v>500</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>120102</v>
       </c>
@@ -1803,35 +1936,38 @@
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="9">
+        <v>96</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="9">
         <v>2</v>
       </c>
-      <c r="E21" s="9">
-        <v>5</v>
-      </c>
       <c r="F21" s="9">
+        <v>5</v>
+      </c>
+      <c r="G21" s="9">
         <v>30</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="9">
+      <c r="I21" s="9">
         <v>400</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>120201</v>
       </c>
@@ -1839,35 +1975,38 @@
         <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="9">
+        <v>97</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="9">
         <v>3</v>
       </c>
-      <c r="E22" s="9">
-        <v>5</v>
-      </c>
       <c r="F22" s="9">
+        <v>5</v>
+      </c>
+      <c r="G22" s="9">
         <v>30</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="H22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="9">
         <v>300</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="J22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>120202</v>
       </c>
@@ -1875,35 +2014,38 @@
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="9">
+        <v>97</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="9">
         <v>3</v>
       </c>
-      <c r="E23" s="9">
-        <v>5</v>
-      </c>
       <c r="F23" s="9">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9">
         <v>30</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="9">
+      <c r="I23" s="9">
         <v>200</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>120301</v>
       </c>
@@ -1911,35 +2053,38 @@
         <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="9">
+        <v>98</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="9">
         <v>4</v>
       </c>
-      <c r="E24" s="9">
-        <v>5</v>
-      </c>
       <c r="F24" s="9">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9">
         <v>30</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="H24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="9">
         <v>100</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="J24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>130101</v>
       </c>
@@ -1947,35 +2092,38 @@
         <v>1</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="14">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="E25" s="14">
         <v>2</v>
       </c>
       <c r="F25" s="14">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14">
         <v>30</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="H25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="14">
+      <c r="I25" s="14">
         <v>250</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="J25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>130102</v>
       </c>
@@ -1983,35 +2131,38 @@
         <v>1</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="14">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="E26" s="14">
         <v>2</v>
       </c>
       <c r="F26" s="14">
-        <v>20</v>
-      </c>
-      <c r="G26" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="14">
+        <v>20</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="14">
+      <c r="I26" s="14">
         <v>250</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="J26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K26" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>130201</v>
       </c>
@@ -2019,35 +2170,38 @@
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="14">
+        <v>100</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="14">
         <v>3</v>
       </c>
-      <c r="E27" s="14">
+      <c r="F27" s="14">
         <v>2</v>
       </c>
-      <c r="F27" s="14">
+      <c r="G27" s="14">
         <v>15</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="14">
+      <c r="I27" s="14">
         <v>200</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="J27" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>130301</v>
       </c>
@@ -2055,35 +2209,38 @@
         <v>1</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="14">
+        <v>101</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="14">
         <v>4</v>
       </c>
-      <c r="E28" s="14">
+      <c r="F28" s="14">
         <v>2</v>
       </c>
-      <c r="F28" s="14">
+      <c r="G28" s="14">
         <v>10</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="H28" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="14">
+      <c r="I28" s="14">
         <v>100</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="J28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K28" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>140101</v>
       </c>
@@ -2091,35 +2248,38 @@
         <v>1</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="18">
+        <v>102</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="18">
         <v>2</v>
       </c>
-      <c r="E29" s="18">
-        <v>5</v>
-      </c>
       <c r="F29" s="18">
+        <v>5</v>
+      </c>
+      <c r="G29" s="18">
         <v>80</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="H29" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="18">
+      <c r="I29" s="18">
         <v>1000</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="J29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J29" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>140201</v>
       </c>
@@ -2127,35 +2287,38 @@
         <v>1</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="18">
+        <v>102</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="18">
         <v>3</v>
       </c>
-      <c r="E30" s="18">
-        <v>5</v>
-      </c>
       <c r="F30" s="18">
+        <v>5</v>
+      </c>
+      <c r="G30" s="18">
         <v>60</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="H30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H30" s="18">
+      <c r="I30" s="18">
         <v>1000</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="J30" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K30" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>140301</v>
       </c>
@@ -2163,35 +2326,38 @@
         <v>1</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="18">
+        <v>102</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="18">
         <v>4</v>
       </c>
-      <c r="E31" s="18">
-        <v>5</v>
-      </c>
       <c r="F31" s="18">
+        <v>5</v>
+      </c>
+      <c r="G31" s="18">
         <v>40</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="H31" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="18">
+      <c r="I31" s="18">
         <v>1000</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="J31" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J31" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K31" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>210101</v>
       </c>
@@ -2199,37 +2365,40 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="2">
+        <v>103</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="2">
         <v>3</v>
       </c>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
       <c r="F32" s="2">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2">
         <v>90</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>1000</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L32" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="M32" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>210102</v>
       </c>
@@ -2237,37 +2406,40 @@
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="2">
+        <v>103</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="E33" s="2">
-        <v>5</v>
-      </c>
       <c r="F33" s="2">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2">
         <v>60</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <v>600</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L33" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="M33" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>210201</v>
       </c>
@@ -2275,37 +2447,40 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="2">
+        <v>104</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="2">
         <v>4</v>
       </c>
-      <c r="E34" s="2">
-        <v>5</v>
-      </c>
       <c r="F34" s="2">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2">
         <v>45</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>350</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L34" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="M34" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>210202</v>
       </c>
@@ -2313,37 +2488,40 @@
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="2">
+        <v>104</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="2">
         <v>4</v>
       </c>
-      <c r="E35" s="2">
-        <v>5</v>
-      </c>
       <c r="F35" s="2">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
         <v>45</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>200</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="K35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="M35" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>210301</v>
       </c>
@@ -2351,33 +2529,36 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="2">
-        <v>5</v>
+        <v>105</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="2">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2">
         <v>45</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>100</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="K36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="2">
+      <c r="M36" s="2">
         <v>20</v>
       </c>
     </row>
@@ -2390,7 +2571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CA84E9-E42D-4E04-8577-CAC45A5D1442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">

--- a/Table/client/lua/exe/temp/M 迷境探索单元格表.xlsx
+++ b/Table/client/lua/exe/temp/M 迷境探索单元格表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ol_and_v13\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24653910-884B-4D82-95CF-EBEF9D6D630B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0B5D6E00-1F56-46B9-9803-58A9297CE5EE}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2E8B5186-833D-4977-AE57-6E7C16438166}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FC105506-F685-42F2-ABD8-14F19C1895F7}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{879EF15A-5060-4865-B861-BB09AAB9D994}">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D04BE824-F092-4196-93A0-2DF1D93BA48E}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{46B887F2-AE00-4874-93A6-8F5232E2D315}">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{5718C2D0-1947-420A-B8F9-1788B0D00811}">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{4E3E213E-A690-4EAB-AB67-16F6978AFA0D}">
       <text>
         <r>
           <rPr>
@@ -170,12 +170,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{EC0155DD-2C3F-49E0-87D5-6CDA603BADAA}">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{ECC533ED-BA91-44F3-BADF-6EFBB187392E}">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{C8515549-E15E-44B5-BC46-EECB451EF842}">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{C010E13D-07FC-4BDE-BD9D-BECB0340C795}">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{6B6DCB76-8189-44FF-831E-ACCF092C445B}">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{4F6A5735-7AA5-44E9-9C24-803E9CB6AAA1}">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{0F04CE2E-342E-4D0F-BE14-ACE2D2BED7C3}">
       <text>
         <r>
           <rPr>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{E3F01CCD-2864-4963-9B77-93BFBD22F1A7}">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -522,6 +522,26 @@
     <t>35108,1</t>
   </si>
   <si>
+    <t>零散的元宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>零散的元宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀薄的灵气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>充裕的灵气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚集的灵气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>重置概率</t>
   </si>
   <si>
@@ -574,106 +594,12 @@
   </si>
   <si>
     <t>mijing_cao_09.png</t>
-  </si>
-  <si>
-    <t>小金礦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中型金礦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大型金礦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>零散的元寶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一大袋元寶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大型寶藏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀薄的靈氣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚集的靈氣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>充裕的靈氣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘寶藏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小頭領</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兇惡怪物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>殘暴魔物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元格名称</t>
-  </si>
-  <si>
-    <t>소형 금광</t>
-  </si>
-  <si>
-    <t>중형 금광</t>
-  </si>
-  <si>
-    <t>대형 금광</t>
-  </si>
-  <si>
-    <t>흩어진 원보</t>
-  </si>
-  <si>
-    <t>원보주머니(대)</t>
-  </si>
-  <si>
-    <t>대형 보물</t>
-  </si>
-  <si>
-    <t>희박한 영기</t>
-  </si>
-  <si>
-    <t>밀집된 영기</t>
-  </si>
-  <si>
-    <t>풍부한 영기</t>
-  </si>
-  <si>
-    <t>신비 보물</t>
-  </si>
-  <si>
-    <t>작은 두목</t>
-  </si>
-  <si>
-    <t>흉악한 몬스터</t>
-  </si>
-  <si>
-    <t>포악한 마물</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1126,29 +1052,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.375" customWidth="1"/>
-    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.375" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,38 +1081,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>110101</v>
       </c>
@@ -1195,38 +1119,35 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2">
         <v>5000</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="J2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>110102</v>
       </c>
@@ -1234,38 +1155,35 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2">
         <v>5000</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>110103</v>
       </c>
@@ -1273,38 +1191,35 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2">
         <v>5000</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>110104</v>
       </c>
@@ -1312,38 +1227,35 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2">
-        <v>36</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2">
         <v>5000</v>
       </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>110105</v>
       </c>
@@ -1351,38 +1263,35 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>48</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5000</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>110201</v>
       </c>
@@ -1390,38 +1299,35 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2">
         <v>4000</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>110202</v>
       </c>
@@ -1429,38 +1335,35 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2">
         <v>4000</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>110203</v>
       </c>
@@ -1468,38 +1371,35 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2">
-        <v>36</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2">
         <v>4000</v>
       </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>110204</v>
       </c>
@@ -1507,38 +1407,35 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2">
-        <v>48</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2">
         <v>4000</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>110301</v>
       </c>
@@ -1546,38 +1443,35 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
       </c>
       <c r="E11" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
-        <v>36</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="2">
+      <c r="H11" s="2">
         <v>3000</v>
       </c>
+      <c r="I11" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>110302</v>
       </c>
@@ -1585,38 +1479,35 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2">
-        <v>48</v>
-      </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="2">
+      <c r="H12" s="2">
         <v>3000</v>
       </c>
+      <c r="I12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>110401</v>
       </c>
@@ -1624,38 +1515,35 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
-        <v>24</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="2">
+      <c r="H13" s="2">
         <v>3000</v>
       </c>
+      <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>110402</v>
       </c>
@@ -1663,38 +1551,35 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
       </c>
       <c r="E14" s="2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2">
-        <v>36</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5</v>
-      </c>
-      <c r="H14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="2">
+      <c r="H14" s="2">
         <v>2500</v>
       </c>
+      <c r="I14" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>110501</v>
       </c>
@@ -1702,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
@@ -1713,27 +1598,24 @@
       <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="G15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="2">
         <v>2000</v>
       </c>
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="J15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>110502</v>
       </c>
@@ -1741,38 +1623,35 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
       </c>
       <c r="E16" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
-        <v>24</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2">
         <v>2000</v>
       </c>
+      <c r="I16" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>110503</v>
       </c>
@@ -1780,38 +1659,35 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>36</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="2">
-        <v>2000</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>110504</v>
       </c>
@@ -1819,38 +1695,35 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5</v>
       </c>
       <c r="E18" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2">
-        <v>60</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="2">
         <v>1000</v>
       </c>
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="J18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>110505</v>
       </c>
@@ -1858,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
@@ -1869,27 +1742,24 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="G19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="2">
         <v>1000</v>
       </c>
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="J19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>120101</v>
       </c>
@@ -1897,38 +1767,35 @@
         <v>1</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
       </c>
       <c r="E20" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" s="9">
-        <v>5</v>
-      </c>
-      <c r="G20" s="9">
         <v>30</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="G20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="9">
         <v>500</v>
       </c>
+      <c r="I20" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>120102</v>
       </c>
@@ -1936,38 +1803,35 @@
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2</v>
       </c>
       <c r="E21" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="9">
-        <v>5</v>
-      </c>
-      <c r="G21" s="9">
         <v>30</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="9">
+      <c r="H21" s="9">
         <v>400</v>
       </c>
+      <c r="I21" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="J21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>120201</v>
       </c>
@@ -1975,38 +1839,35 @@
         <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>83</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="9">
+        <v>3</v>
       </c>
       <c r="E22" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22" s="9">
-        <v>5</v>
-      </c>
-      <c r="G22" s="9">
         <v>30</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="G22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="9">
         <v>300</v>
       </c>
+      <c r="I22" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="J22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>120202</v>
       </c>
@@ -2014,38 +1875,35 @@
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>83</v>
+        <v>26</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3</v>
       </c>
       <c r="E23" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23" s="9">
-        <v>5</v>
-      </c>
-      <c r="G23" s="9">
         <v>30</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="9">
+      <c r="H23" s="9">
         <v>200</v>
       </c>
+      <c r="I23" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="J23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>120301</v>
       </c>
@@ -2053,38 +1911,35 @@
         <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="D24" s="9">
+        <v>4</v>
       </c>
       <c r="E24" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="9">
-        <v>5</v>
-      </c>
-      <c r="G24" s="9">
         <v>30</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="G24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="9">
         <v>100</v>
       </c>
+      <c r="I24" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="J24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>130101</v>
       </c>
@@ -2092,38 +1947,35 @@
         <v>1</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>85</v>
+        <v>63</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2</v>
       </c>
       <c r="E25" s="14">
         <v>2</v>
       </c>
       <c r="F25" s="14">
-        <v>2</v>
-      </c>
-      <c r="G25" s="14">
         <v>30</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="G25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I25" s="14">
+      <c r="H25" s="14">
         <v>250</v>
       </c>
+      <c r="I25" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="J25" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>130102</v>
       </c>
@@ -2131,38 +1983,35 @@
         <v>1</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>85</v>
+        <v>63</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2</v>
       </c>
       <c r="E26" s="14">
         <v>2</v>
       </c>
       <c r="F26" s="14">
-        <v>2</v>
-      </c>
-      <c r="G26" s="14">
-        <v>20</v>
-      </c>
-      <c r="H26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="14">
+      <c r="H26" s="14">
         <v>250</v>
       </c>
+      <c r="I26" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="J26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>130201</v>
       </c>
@@ -2170,38 +2019,35 @@
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>86</v>
+        <v>65</v>
+      </c>
+      <c r="D27" s="14">
+        <v>3</v>
       </c>
       <c r="E27" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="14">
-        <v>2</v>
-      </c>
-      <c r="G27" s="14">
         <v>15</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="14">
+      <c r="H27" s="14">
         <v>200</v>
       </c>
+      <c r="I27" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="J27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>130301</v>
       </c>
@@ -2209,38 +2055,35 @@
         <v>1</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>87</v>
+        <v>64</v>
+      </c>
+      <c r="D28" s="14">
+        <v>4</v>
       </c>
       <c r="E28" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" s="14">
-        <v>2</v>
-      </c>
-      <c r="G28" s="14">
         <v>10</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="G28" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="14">
+      <c r="H28" s="14">
         <v>100</v>
       </c>
+      <c r="I28" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="J28" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="18">
         <v>140101</v>
       </c>
@@ -2248,38 +2091,35 @@
         <v>1</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2</v>
       </c>
       <c r="E29" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F29" s="18">
-        <v>5</v>
-      </c>
-      <c r="G29" s="18">
         <v>80</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="G29" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="18">
+      <c r="H29" s="18">
         <v>1000</v>
       </c>
+      <c r="I29" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="J29" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="18">
         <v>140201</v>
       </c>
@@ -2287,38 +2127,35 @@
         <v>1</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="D30" s="18">
+        <v>3</v>
       </c>
       <c r="E30" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30" s="18">
-        <v>5</v>
-      </c>
-      <c r="G30" s="18">
         <v>60</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="G30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="18">
+      <c r="H30" s="18">
         <v>1000</v>
       </c>
+      <c r="I30" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="J30" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A31" s="18">
         <v>140301</v>
       </c>
@@ -2326,38 +2163,35 @@
         <v>1</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="D31" s="18">
+        <v>4</v>
       </c>
       <c r="E31" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="18">
-        <v>5</v>
-      </c>
-      <c r="G31" s="18">
         <v>40</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="G31" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="18">
+      <c r="H31" s="18">
         <v>1000</v>
       </c>
+      <c r="I31" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="J31" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="K31" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>210101</v>
       </c>
@@ -2365,40 +2199,37 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
       </c>
       <c r="E32" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2">
-        <v>5</v>
-      </c>
-      <c r="G32" s="2">
         <v>90</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="2">
+      <c r="H32" s="2">
         <v>1000</v>
       </c>
+      <c r="I32" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="J32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M32" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="L32" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>210102</v>
       </c>
@@ -2406,40 +2237,37 @@
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
       </c>
       <c r="E33" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2">
-        <v>5</v>
-      </c>
-      <c r="G33" s="2">
         <v>60</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="2">
+      <c r="H33" s="2">
         <v>600</v>
       </c>
+      <c r="I33" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="J33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M33" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="L33" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>210201</v>
       </c>
@@ -2447,40 +2275,37 @@
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
       </c>
       <c r="E34" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="2">
-        <v>5</v>
-      </c>
-      <c r="G34" s="2">
         <v>45</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="2">
+      <c r="H34" s="2">
         <v>350</v>
       </c>
+      <c r="I34" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="J34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M34" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="L34" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>210202</v>
       </c>
@@ -2488,40 +2313,37 @@
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
       </c>
       <c r="E35" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" s="2">
-        <v>5</v>
-      </c>
-      <c r="G35" s="2">
         <v>45</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="G35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="2">
+      <c r="H35" s="2">
         <v>200</v>
       </c>
+      <c r="I35" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J35" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M35" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="L35" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>210301</v>
       </c>
@@ -2529,36 +2351,33 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5</v>
       </c>
       <c r="E36" s="2">
         <v>5</v>
       </c>
       <c r="F36" s="2">
-        <v>5</v>
-      </c>
-      <c r="G36" s="2">
         <v>45</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I36" s="2">
+      <c r="H36" s="2">
         <v>100</v>
       </c>
+      <c r="I36" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="J36" s="2" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M36" s="2">
+      <c r="L36" s="2">
         <v>20</v>
       </c>
     </row>
@@ -2571,7 +2390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CA84E9-E42D-4E04-8577-CAC45A5D1442}">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
